--- a/biology/Botanique/Aymar_Charles_d'Alleizette/Aymar_Charles_d'Alleizette.xlsx
+++ b/biology/Botanique/Aymar_Charles_d'Alleizette/Aymar_Charles_d'Alleizette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aymar_Charles_d%27Alleizette</t>
+          <t>Aymar_Charles_d'Alleizette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aymar Charles d'Alleizette (Paris 8e, 23 janvier 1884 - Clermont-Ferrand, 4 juillet 1967[1]) est un administrateur militaire et un botaniste français.
-Il est membre de l'armée française de 1904 environ à 1942. Il s'engage au 22e régiment d'infanterie coloniale à Hyères. Durant cette période, il est stationné à Madagascar (1906), au Tonkin (1908) et en Algérie (1911-22)[2].
-Il travaille Muséum national d'Histoire naturelle de Paris, d'abord au service des cultures (1901 à 1904) puis au laboratoire des phanérogames (1943 à 1948). Il est conservateur des herbiers universitaires de Clermont-Ferrand de 1949 jusqu'à sa mort[2],[3].
-Tout au long de sa carrière, il collectionne des spécimens botaniques et son herbier personnel de 60 000 parts est aujourd'hui propriété de la faculté des sciences de Clermont-Ferrand de l'Université Clermont-Auvergne. Il s'intéresse particulièrement à la famille des Orchidaceae originaires d'Europe et d'Afrique du Nord. On lui attribue la description de nombreux hybrides d'orchidées[2],[3].
-En 1955, il reçoit le prix de Coincy décerné par la Société botanique de France[4].
-Les genres botaniques Alleizettea (synonyme de Danais) et Alleizetella portent son nom[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aymar Charles d'Alleizette (Paris 8e, 23 janvier 1884 - Clermont-Ferrand, 4 juillet 1967) est un administrateur militaire et un botaniste français.
+Il est membre de l'armée française de 1904 environ à 1942. Il s'engage au 22e régiment d'infanterie coloniale à Hyères. Durant cette période, il est stationné à Madagascar (1906), au Tonkin (1908) et en Algérie (1911-22).
+Il travaille Muséum national d'Histoire naturelle de Paris, d'abord au service des cultures (1901 à 1904) puis au laboratoire des phanérogames (1943 à 1948). Il est conservateur des herbiers universitaires de Clermont-Ferrand de 1949 jusqu'à sa mort,.
+Tout au long de sa carrière, il collectionne des spécimens botaniques et son herbier personnel de 60 000 parts est aujourd'hui propriété de la faculté des sciences de Clermont-Ferrand de l'Université Clermont-Auvergne. Il s'intéresse particulièrement à la famille des Orchidaceae originaires d'Europe et d'Afrique du Nord. On lui attribue la description de nombreux hybrides d'orchidées,.
+En 1955, il reçoit le prix de Coincy décerné par la Société botanique de France.
+Les genres botaniques Alleizettea (synonyme de Danais) et Alleizetella portent son nom.
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aymar_Charles_d%27Alleizette</t>
+          <t>Aymar_Charles_d'Alleizette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,13 +528,15 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est l'auteur de nombreux articles sur la botanique d'Auvergne, publiés dans le Bulletin de la Société d'histoire naturelle d'Auvergne, parmi lesquels :
 Note sur les Orchidées d'Auvergne, Bulletin de la Société d'histoire naturelle d'Auvergne, 4(1), 1938.
 Observations sur la flore d'Auvergne, Bulletin de la Société d'histoire naturelle d'Auvergne, 19(1-2) (avec Jean-Edme Loiseau), 1953.
 Hybrides de Viola Tricolor en Auvergne, Bulletin de la Société d'histoire naturelle d'Auvergne, 19(1-2), 1953.
-Contribution à l'étude de la flore d'Auvergne, Bulletin de la Société d'histoire naturelle d'Auvergne, 1965[3].</t>
+Contribution à l'étude de la flore d'Auvergne, Bulletin de la Société d'histoire naturelle d'Auvergne, 1965.</t>
         </is>
       </c>
     </row>
